--- a/parsers_two_table/org_filtered_data.xlsx
+++ b/parsers_two_table/org_filtered_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>org_id</t>
   </si>
@@ -31,33 +31,15 @@
     <t>Weatherford</t>
   </si>
   <si>
-    <t>Institute of Energy Strategy</t>
-  </si>
-  <si>
     <t>ООО НТФ "Атомбиотех"</t>
   </si>
   <si>
-    <t>Oil and Gas Research Institute Russian Academy of Sciences (IPNG RAS)</t>
-  </si>
-  <si>
     <t>Горный институт НИТУМИСиС</t>
   </si>
   <si>
-    <t>Institute of oil and gas exploration problems, Russian Academy of Science</t>
-  </si>
-  <si>
-    <t>IPNG RAN</t>
-  </si>
-  <si>
     <t>ООО «РН-ШЕЛЬФ-АРКТИКА»</t>
   </si>
   <si>
-    <t>Oil and Gas Problems Research Institute of Russian Academy of Sciences</t>
-  </si>
-  <si>
-    <t>Institute of Oil and Gas Problems of the Russian Academy of Sciences</t>
-  </si>
-  <si>
     <t>Институт геологии и геохимии Уральского отделения Российской академии наук им. А.Н. Заварицкого</t>
   </si>
   <si>
@@ -175,9 +157,6 @@
     <t>institute of Geophysics|VAST</t>
   </si>
   <si>
-    <t>Graduate University of Science and Technology|VAST</t>
-  </si>
-  <si>
     <t>George Washington University</t>
   </si>
   <si>
@@ -226,9 +205,6 @@
     <t>Centre for Arctic Gas Hydrate|Environment and Climate - CAGE|Department of Geosciences|University of Tromsø – the Arctic University of Norway</t>
   </si>
   <si>
-    <t>Geography|University of Oulu</t>
-  </si>
-  <si>
     <t>Norwegian Petroleum Directorate</t>
   </si>
   <si>
@@ -244,9 +220,6 @@
     <t>Межотраслевой экспертно - аналитический центр Союза Нефтегазопромышленников России</t>
   </si>
   <si>
-    <t>Компания "Хромос Инжиниринг"</t>
-  </si>
-  <si>
     <t>Газпром трансгаз Беларусь</t>
   </si>
   <si>
@@ -254,9 +227,6 @@
   </si>
   <si>
     <t>ГБУ города Москва «Центр экспертиз, исследований и испытаний в строительстве» (ГБУ «ЦЭИИС»)</t>
-  </si>
-  <si>
-    <t>ОАО «Газпром трансгаз Беларусь»</t>
   </si>
   <si>
     <t>Межотраслевой экспертно-аналитический центр Союза нефтегазопромышленников России</t>
@@ -647,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1293,86 +1263,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>2</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>2</v>
-      </c>
-      <c r="B90" t="s">
-        <v>91</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parsers_two_table/org_filtered_data.xlsx
+++ b/parsers_two_table/org_filtered_data.xlsx
@@ -7,19 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Org Filtered Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
+  <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>generated_ids</t>
+  </si>
+  <si>
+    <t>possible_id_from_db</t>
+  </si>
+  <si>
+    <t>enter_id</t>
+  </si>
   <si>
     <t>org_id</t>
-  </si>
-  <si>
-    <t>org_name</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -617,650 +626,1370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B80"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>9138903996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>9138903996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>8659759865</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>8659759865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>7118646482</v>
+      </c>
+      <c r="D4">
+        <v>4694601726</v>
+      </c>
+      <c r="E4">
+        <v>4694601726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8476402556</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>8476402556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3819821797</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>3819821797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>6628134385</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6628134385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>7933607839</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>7933607839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>7421823637</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7421823637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>1849688168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1849688168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>4758939772</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4758939772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>8385083720</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>8385083720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>4905513020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4905513020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>8574069848</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>8574069848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1179259649</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>1179259649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>9377987339</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>9377987339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>9426471396</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>9426471396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>9814058406</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>9814058406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>7936348181</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>7936348181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>7585196001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>7585196001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>9975473515</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>9975473515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>6535004512</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>6535004512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>3819169747</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>3819169747</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>7013381733</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>7013381733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>9276857761</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>9276857761</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>6399975610</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>6399975610</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>2</v>
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>8166097624</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>8166097624</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>9550434322</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>9550434322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>2</v>
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>1574135904</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>1574135904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>3584408610</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>3584408610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>4794364566</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>4794364566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>6784662393</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>6784662393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>2</v>
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>8058637459</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>8058637459</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>5835584772</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5835584772</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>9485764376</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>9485764376</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>6012374190</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>6012374190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>8526678364</v>
+      </c>
+      <c r="D37">
+        <v>5426017911</v>
+      </c>
+      <c r="E37">
+        <v>5426017911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>9926393735</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>9926393735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>2</v>
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>5649929505</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>5649929505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>9550691082</v>
+      </c>
+      <c r="D40">
+        <v>1449539226</v>
+      </c>
+      <c r="E40">
+        <v>1449539226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>6632335495</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>6632335495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>3606812969</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>3606812969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>7279546065</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>7279546065</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>4756000701</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>4756000701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>6045239577</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>6045239577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>1446905669</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1446905669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>9888800858</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>9888800858</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>1665747008</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1665747008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>9413158591</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>9413158591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>5976567696</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5976567696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>4437203722</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>4437203722</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>1293192271</v>
+      </c>
+      <c r="D52">
+        <v>2026520007</v>
+      </c>
+      <c r="E52">
+        <v>2026520007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>7316520456</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>7316520456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>1193519584</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1193519584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>6743608717</v>
+      </c>
+      <c r="D55">
+        <v>9769709332</v>
+      </c>
+      <c r="E55">
+        <v>9769709332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>5847890183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>5847890183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>1732279273</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>1732279273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>2</v>
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>5041121926</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <v>5041121926</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>3970666730</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>3970666730</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>1383970983</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>1383970983</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>6813834585</v>
+      </c>
+      <c r="D61">
+        <v>8412435692</v>
+      </c>
+      <c r="E61">
+        <v>8412435692</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>2</v>
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>4030824415</v>
+      </c>
+      <c r="D62">
+        <v>6269766961</v>
+      </c>
+      <c r="E62">
+        <v>6269766961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>2</v>
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>3562448761</v>
+      </c>
+      <c r="D63">
+        <v>6472827954</v>
+      </c>
+      <c r="E63">
+        <v>6472827954</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>2</v>
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>9013610854</v>
+      </c>
+      <c r="D64">
+        <v>7575361043</v>
+      </c>
+      <c r="E64">
+        <v>7575361043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>6687291554</v>
+      </c>
+      <c r="D65">
+        <v>2435182319</v>
+      </c>
+      <c r="E65">
+        <v>2435182319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>2</v>
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>1873561290</v>
+      </c>
+      <c r="D66">
+        <v>5361868631</v>
+      </c>
+      <c r="E66">
+        <v>5361868631</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>2</v>
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>5317059188</v>
+      </c>
+      <c r="D67">
+        <v>4423676799</v>
+      </c>
+      <c r="E67">
+        <v>4423676799</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>2</v>
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>2866831727</v>
+      </c>
+      <c r="D68">
+        <v>5781861978</v>
+      </c>
+      <c r="E68">
+        <v>5781861978</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>2</v>
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>6865997298</v>
+      </c>
+      <c r="D69">
+        <v>2296314266</v>
+      </c>
+      <c r="E69">
+        <v>2296314266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>1645351343</v>
+      </c>
+      <c r="D70">
+        <v>8180579658</v>
+      </c>
+      <c r="E70">
+        <v>8180579658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>2</v>
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>8842487034</v>
+      </c>
+      <c r="D71">
+        <v>9523972075</v>
+      </c>
+      <c r="E71">
+        <v>9523972075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>3645142666</v>
+      </c>
+      <c r="D72">
+        <v>2414597150</v>
+      </c>
+      <c r="E72">
+        <v>2414597150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>8744748181</v>
+      </c>
+      <c r="D73">
+        <v>3343689284</v>
+      </c>
+      <c r="E73">
+        <v>3343689284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>5689402324</v>
+      </c>
+      <c r="D74">
+        <v>7750235377</v>
+      </c>
+      <c r="E74">
+        <v>7750235377</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>6796970585</v>
+      </c>
+      <c r="D75">
+        <v>7421869418</v>
+      </c>
+      <c r="E75">
+        <v>7421869418</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>2</v>
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>1978184837</v>
+      </c>
+      <c r="D76">
+        <v>9931411125</v>
+      </c>
+      <c r="E76">
+        <v>9931411125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>2</v>
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>6889207688</v>
+      </c>
+      <c r="D77">
+        <v>7587958775</v>
+      </c>
+      <c r="E77">
+        <v>7587958775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>8195177195</v>
+      </c>
+      <c r="D78">
+        <v>1687254811</v>
+      </c>
+      <c r="E78">
+        <v>1687254811</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>2</v>
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>9819609354</v>
+      </c>
+      <c r="D79">
+        <v>4225727940</v>
+      </c>
+      <c r="E79">
+        <v>4225727940</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>9120048310</v>
+      </c>
+      <c r="D80">
+        <v>7939574134</v>
+      </c>
+      <c r="E80">
+        <v>7939574134</v>
       </c>
     </row>
   </sheetData>
